--- a/documentation/road_map - new.xlsx
+++ b/documentation/road_map - new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\bc_gitKraken\PluginIntoIntelliJ_BP\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sramk\Documents\vysoka_skola\bakalarka\gitkraken_bakalarska_prace\PluginIntoIntelliJ_BP\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27BB05-3817-439D-A83E-939A85768A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE54FB7-107B-4560-8209-8F7EC2E5D145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Procházet projekt, vybírat .java soubory, ukládat je do struktury pro následnou práci s nimi.</t>
   </si>
   <si>
-    <t>Procházet soubory z bodu 9, vybírat z nich hodnoty podle konfiguračního souboru (hodnoty z formuláře) a ukládat je do PUML souboru</t>
-  </si>
-  <si>
     <t>Kontrola na plagiátorství, zkontrolovat podle rešerše - jedinečnost.</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Vytvořit formulář pro správu konfiguračních souborů daného projektu.</t>
+  </si>
+  <si>
+    <t>Procházet soubory z bodu 9, vybírat z nich hodnoty podle konfiguračního souboru (hodnoty z formuláře) a ukládat je do PlantUML souboru</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -514,17 +514,17 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -568,7 +568,7 @@
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2"/>
     </row>
